--- a/号号.xlsx
+++ b/号号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8175"/>
+    <workbookView windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="班级" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>209247255 214620052</t>
+  </si>
+  <si>
+    <t>209290654 210948579</t>
+  </si>
+  <si>
+    <t>215388697 201831358</t>
+  </si>
+  <si>
+    <t>212494333 214422459</t>
+  </si>
+  <si>
+    <t>214754485 204403310</t>
+  </si>
+  <si>
+    <t>215513552 210394179</t>
+  </si>
+  <si>
+    <t>201565450 201541257</t>
+  </si>
+  <si>
+    <t>209613962 214748274</t>
+  </si>
+  <si>
+    <t>214551698 209757979</t>
+  </si>
+  <si>
+    <t>216873603 208531662</t>
+  </si>
+  <si>
+    <t>202244994 214113364</t>
+  </si>
+  <si>
+    <t>205097504 215324897</t>
+  </si>
+  <si>
+    <t>216292291 202828849</t>
+  </si>
+  <si>
+    <t>216313419 210304292</t>
+  </si>
+  <si>
+    <t>211412739 217383001</t>
+  </si>
+  <si>
+    <t>209298330 213228478</t>
+  </si>
+  <si>
+    <t>214552467 202184391</t>
+  </si>
+  <si>
+    <t>215632114 219887073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+211208884</t>
+  </si>
   <si>
     <t xml:space="preserve">213031448
 </t>
@@ -24,16 +82,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">202187120
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202378300
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204170416
-</t>
+    <t>202187120 209663333</t>
+  </si>
+  <si>
+    <t>202378300 204899925</t>
+  </si>
+  <si>
+    <t>204170416 201390340</t>
   </si>
 </sst>
 </file>
@@ -41,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,21 +119,106 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +232,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -102,124 +249,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -231,19 +292,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,31 +394,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,67 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,49 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +483,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,7 +544,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,21 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -486,30 +571,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,154 +603,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -704,26 +765,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +792,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,8 +823,8 @@
     <cellStyle name="标题" xfId="18" builtinId="15"/>
     <cellStyle name="常规 12" xfId="19"/>
     <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="常规 6 2" xfId="21"/>
-    <cellStyle name="常规 8" xfId="22"/>
+    <cellStyle name="常规 8" xfId="21"/>
+    <cellStyle name="常规 6 2" xfId="22"/>
     <cellStyle name="标题 1" xfId="23" builtinId="16"/>
     <cellStyle name="标题 2" xfId="24" builtinId="17"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
@@ -1069,450 +1136,436 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="10.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="2"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="7" width="21.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:7">
-      <c r="B1" s="1">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3">
         <v>203382353</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>217991930</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>212547247</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>212851598</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>213712496</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>217385685</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:7">
-      <c r="B2" s="1">
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3">
         <v>219824695</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>217273650</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>213998353</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>214235233</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>203472243</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>206596963</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:7">
-      <c r="B3" s="1">
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
         <v>218182572</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>211209056</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>214410528</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>201294850</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>209580304</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>211591455</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:7">
-      <c r="B4" s="1">
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
         <v>212502838</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>211980701</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>205836784</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>210388012</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>216176912</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>213005261</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:7">
-      <c r="B5" s="1">
-        <v>209247255</v>
-      </c>
-      <c r="C5" s="1">
-        <v>209290654</v>
-      </c>
-      <c r="D5" s="1">
-        <v>215388697</v>
-      </c>
-      <c r="E5" s="1">
-        <v>212494333</v>
-      </c>
-      <c r="F5" s="1">
-        <v>214754485</v>
-      </c>
-      <c r="G5" s="1">
-        <v>215513552</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:7">
-      <c r="B6" s="1">
-        <v>201565450</v>
-      </c>
-      <c r="C6" s="1">
-        <v>209613962</v>
-      </c>
-      <c r="D6" s="1">
-        <v>214551698</v>
-      </c>
-      <c r="E6" s="1">
-        <v>216873603</v>
-      </c>
-      <c r="F6" s="1">
-        <v>202244994</v>
-      </c>
-      <c r="G6" s="1">
-        <v>205097504</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:7">
-      <c r="B7" s="1">
-        <v>216292291</v>
-      </c>
-      <c r="C7" s="1">
-        <v>216313419</v>
-      </c>
-      <c r="D7" s="1">
-        <v>211412739</v>
-      </c>
-      <c r="E7" s="1">
-        <v>209298330</v>
-      </c>
-      <c r="F7" s="1">
-        <v>214552467</v>
-      </c>
-      <c r="G7" s="1">
-        <v>215632114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1">
-        <v>211208884</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
